--- a/CapstoneProject/sorte/datosNacimientoUsuarios.xlsx
+++ b/CapstoneProject/sorte/datosNacimientoUsuarios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>35697</v>
+        <v>36110</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>36387</v>
+        <v>37179</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -467,25 +467,9 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>37179</v>
+        <v>28805</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>33218</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>32645</v>
-      </c>
-      <c r="B6" t="n">
         <v>1</v>
       </c>
     </row>
